--- a/出席率変化の集計/files/欠席時間集計表.xlsx
+++ b/出席率変化の集計/files/欠席時間集計表.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L6" sqref="L5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -506,12 +506,6 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>26</v>
-      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6">
